--- a/test2.xlsx
+++ b/test2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20384"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20385"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365uos-my.sharepoint.com/personal/jamie78128_office_uos_ac_kr/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="14_{4954ED7D-8472-4BFA-9153-6BA006E7E8CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7A3A6B1-4A2A-4B05-8ECC-E82EE97B8632}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{1A566A8C-C429-448D-A738-60A4CE9473FB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{507D9501-C56F-49CE-AF68-E05250C7E044}"/>
   <bookViews>
     <workbookView xWindow="16080" yWindow="10536" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="63">
   <si>
     <t>Ru</t>
   </si>
@@ -235,6 +235,14 @@
   </si>
   <si>
     <t>preads</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-t</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>p5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -912,13 +920,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O311"/>
+  <dimension ref="A1:O329"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D215" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D299" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E219" sqref="E219"/>
+      <selection pane="bottomRight" activeCell="J316" sqref="J316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -5470,7 +5478,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="K165" s="43">
-        <f t="shared" ref="K165:K228" si="5">MAX(G165,F165-G165,H165-F165,4.92-H165)-1.23</f>
+        <f t="shared" ref="K165:K227" si="5">MAX(G165,F165-G165,H165-F165,4.92-H165)-1.23</f>
         <v>0.98999999999999977</v>
       </c>
     </row>
@@ -5902,7 +5910,7 @@
         <v>59</v>
       </c>
       <c r="E179" s="41">
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
       <c r="F179" s="26">
         <v>0.72</v>
@@ -5914,7 +5922,7 @@
         <v>3.34</v>
       </c>
       <c r="J179" s="42">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="K179" s="43">
         <f t="shared" si="5"/>
@@ -7358,7 +7366,7 @@
         <v>59</v>
       </c>
       <c r="E225" s="41">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="F225" s="26">
         <v>1.68</v>
@@ -7370,7 +7378,7 @@
         <v>3.59</v>
       </c>
       <c r="J225" s="42">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="K225" s="43">
         <f t="shared" si="5"/>
@@ -7528,7 +7536,7 @@
         <v>1.01</v>
       </c>
       <c r="K230" s="43">
-        <f t="shared" ref="K229:K253" si="6">MAX(G230,F230-G230,H230-F230,4.92-H230)-1.23</f>
+        <f t="shared" ref="K230:K251" si="6">MAX(G230,F230-G230,H230-F230,4.92-H230)-1.23</f>
         <v>1.0500000000000003</v>
       </c>
     </row>
@@ -7701,7 +7709,7 @@
         <v>59</v>
       </c>
       <c r="E236" s="41">
-        <v>-0.8</v>
+        <v>-0.77</v>
       </c>
       <c r="F236" s="41">
         <v>-0.99</v>
@@ -7711,7 +7719,7 @@
       </c>
       <c r="H236" s="26"/>
       <c r="J236" s="42">
-        <v>2.16</v>
+        <v>2.13</v>
       </c>
       <c r="K236" s="43"/>
     </row>
@@ -7729,7 +7737,7 @@
         <v>59</v>
       </c>
       <c r="E237" s="41">
-        <v>0.44</v>
+        <v>0.46</v>
       </c>
       <c r="F237" s="26">
         <v>0.73</v>
@@ -7741,7 +7749,7 @@
         <v>3.57</v>
       </c>
       <c r="J237" s="42">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
       <c r="K237" s="43">
         <f t="shared" si="6"/>
@@ -7894,7 +7902,7 @@
         <v>59</v>
       </c>
       <c r="E242" s="41">
-        <v>-1.48</v>
+        <v>-1.43</v>
       </c>
       <c r="F242" s="26">
         <v>-1.87</v>
@@ -7904,7 +7912,7 @@
       </c>
       <c r="H242" s="26"/>
       <c r="J242" s="42">
-        <v>2.84</v>
+        <v>2.79</v>
       </c>
       <c r="K242" s="43"/>
     </row>
@@ -8021,7 +8029,7 @@
         <v>59</v>
       </c>
       <c r="E246" s="41">
-        <v>-1.78</v>
+        <v>-1.73</v>
       </c>
       <c r="F246" s="26">
         <v>-2.37</v>
@@ -8031,7 +8039,7 @@
       </c>
       <c r="H246" s="26"/>
       <c r="J246" s="42">
-        <v>3.14</v>
+        <v>3.09</v>
       </c>
       <c r="K246" s="43"/>
     </row>
@@ -8049,7 +8057,7 @@
         <v>59</v>
       </c>
       <c r="E247" s="41">
-        <v>-1.07</v>
+        <v>-1.03</v>
       </c>
       <c r="F247" s="26">
         <v>-1.59</v>
@@ -8059,7 +8067,7 @@
       </c>
       <c r="H247" s="26"/>
       <c r="J247" s="42">
-        <v>2.4300000000000002</v>
+        <v>2.39</v>
       </c>
       <c r="K247" s="43"/>
     </row>
@@ -9829,7 +9837,7 @@
       </c>
       <c r="K310" s="26"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A311" s="9" t="s">
         <v>24</v>
       </c>
@@ -9849,6 +9857,496 @@
         <v>0.21</v>
       </c>
       <c r="K311" s="26"/>
+    </row>
+    <row r="312" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A312" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B312" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C312" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D312" t="s">
+        <v>59</v>
+      </c>
+      <c r="E312" s="41">
+        <v>-0.38</v>
+      </c>
+      <c r="F312" s="41">
+        <v>-0.11</v>
+      </c>
+      <c r="G312" s="41">
+        <v>-0.45</v>
+      </c>
+      <c r="H312" s="26">
+        <v>2.35</v>
+      </c>
+      <c r="J312" s="42">
+        <v>1.74</v>
+      </c>
+      <c r="K312" s="43"/>
+    </row>
+    <row r="313" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A313" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B313" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D313" t="s">
+        <v>59</v>
+      </c>
+      <c r="E313" s="41">
+        <v>0.48</v>
+      </c>
+      <c r="F313" s="26">
+        <v>1.27</v>
+      </c>
+      <c r="G313" s="26">
+        <v>0.59</v>
+      </c>
+      <c r="H313" s="26">
+        <v>3.66</v>
+      </c>
+      <c r="J313" s="42">
+        <v>0.88</v>
+      </c>
+      <c r="K313" s="43"/>
+    </row>
+    <row r="314" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A314" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B314" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D314" t="s">
+        <v>59</v>
+      </c>
+      <c r="E314" s="41">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F314" s="26">
+        <v>1.3</v>
+      </c>
+      <c r="G314" s="26">
+        <v>0.74</v>
+      </c>
+      <c r="H314" s="26">
+        <v>3.72</v>
+      </c>
+      <c r="J314" s="42">
+        <v>0.79</v>
+      </c>
+      <c r="K314" s="43"/>
+    </row>
+    <row r="315" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A315" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B315" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D315" t="s">
+        <v>59</v>
+      </c>
+      <c r="E315" s="41">
+        <v>0.78</v>
+      </c>
+      <c r="F315" s="26">
+        <v>1.97</v>
+      </c>
+      <c r="G315" s="26">
+        <v>0.92</v>
+      </c>
+      <c r="H315" s="26">
+        <v>3.75</v>
+      </c>
+      <c r="J315" s="42">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="K315" s="43"/>
+    </row>
+    <row r="316" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A316" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B316" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D316" t="s">
+        <v>59</v>
+      </c>
+      <c r="E316" s="41">
+        <v>1.27</v>
+      </c>
+      <c r="F316" s="26">
+        <v>3.58</v>
+      </c>
+      <c r="G316" s="26">
+        <v>1.72</v>
+      </c>
+      <c r="H316" s="26">
+        <v>4.51</v>
+      </c>
+      <c r="J316" s="42">
+        <v>0.09</v>
+      </c>
+      <c r="K316" s="43"/>
+    </row>
+    <row r="317" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A317" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B317" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D317" t="s">
+        <v>59</v>
+      </c>
+      <c r="E317" s="41">
+        <v>1.52</v>
+      </c>
+      <c r="F317" s="26">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="G317" s="26">
+        <v>2.09</v>
+      </c>
+      <c r="H317" s="26">
+        <v>4.83</v>
+      </c>
+      <c r="J317" s="42">
+        <v>0.16</v>
+      </c>
+      <c r="K317" s="43"/>
+    </row>
+    <row r="318" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A318" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B318" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D318" t="s">
+        <v>59</v>
+      </c>
+      <c r="E318" s="41"/>
+      <c r="F318" s="26"/>
+      <c r="G318" s="26"/>
+      <c r="H318" s="26"/>
+      <c r="J318" s="42"/>
+      <c r="K318" s="43"/>
+    </row>
+    <row r="319" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A319" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B319" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D319" t="s">
+        <v>59</v>
+      </c>
+      <c r="E319" s="41">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F319" s="26">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="G319" s="26">
+        <v>0.85</v>
+      </c>
+      <c r="H319" s="26">
+        <v>3.69</v>
+      </c>
+      <c r="J319" s="42">
+        <v>0.8</v>
+      </c>
+      <c r="K319" s="43"/>
+    </row>
+    <row r="320" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A320" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B320" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D320" t="s">
+        <v>59</v>
+      </c>
+      <c r="E320" s="41">
+        <v>1.55</v>
+      </c>
+      <c r="F320" s="26">
+        <v>4.04</v>
+      </c>
+      <c r="G320" s="26">
+        <v>2.08</v>
+      </c>
+      <c r="H320" s="26">
+        <v>4.8</v>
+      </c>
+      <c r="J320" s="42">
+        <v>0.19</v>
+      </c>
+      <c r="K320" s="43"/>
+    </row>
+    <row r="321" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A321" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B321" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D321" t="s">
+        <v>59</v>
+      </c>
+      <c r="E321" s="41">
+        <v>1.8</v>
+      </c>
+      <c r="F321" s="26">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="G321" s="26">
+        <v>2.48</v>
+      </c>
+      <c r="H321" s="26">
+        <v>4.92</v>
+      </c>
+      <c r="J321" s="42">
+        <v>0.44</v>
+      </c>
+      <c r="K321" s="43"/>
+    </row>
+    <row r="322" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A322" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B322" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D322" t="s">
+        <v>59</v>
+      </c>
+      <c r="E322" s="41"/>
+      <c r="F322" s="26"/>
+      <c r="G322" s="26"/>
+      <c r="H322" s="26"/>
+      <c r="J322" s="42"/>
+      <c r="K322" s="43"/>
+    </row>
+    <row r="323" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A323" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B323" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D323" t="s">
+        <v>59</v>
+      </c>
+      <c r="E323" s="41"/>
+      <c r="F323" s="26"/>
+      <c r="G323" s="26"/>
+      <c r="H323" s="26"/>
+      <c r="J323" s="42"/>
+      <c r="K323" s="43"/>
+    </row>
+    <row r="324" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A324" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B324" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D324" t="s">
+        <v>59</v>
+      </c>
+      <c r="E324" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="F324" s="26">
+        <v>1.55</v>
+      </c>
+      <c r="G324" s="26">
+        <v>0.74</v>
+      </c>
+      <c r="H324" s="26">
+        <v>3.64</v>
+      </c>
+      <c r="J324" s="42">
+        <v>0.86</v>
+      </c>
+      <c r="K324" s="43"/>
+    </row>
+    <row r="325" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A325" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B325" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D325" t="s">
+        <v>59</v>
+      </c>
+      <c r="E325" s="41">
+        <v>1.49</v>
+      </c>
+      <c r="F325" s="26">
+        <v>3.75</v>
+      </c>
+      <c r="G325" s="26">
+        <v>1.97</v>
+      </c>
+      <c r="H325" s="26">
+        <v>4.78</v>
+      </c>
+      <c r="J325" s="42">
+        <v>0.13</v>
+      </c>
+      <c r="K325" s="43"/>
+    </row>
+    <row r="326" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A326" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B326" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D326" t="s">
+        <v>59</v>
+      </c>
+      <c r="E326" s="41">
+        <v>2</v>
+      </c>
+      <c r="F326" s="26">
+        <v>4.82</v>
+      </c>
+      <c r="G326" s="26">
+        <v>2.65</v>
+      </c>
+      <c r="H326" s="26">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="J326" s="42">
+        <v>0.64</v>
+      </c>
+      <c r="K326" s="43"/>
+    </row>
+    <row r="327" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A327" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B327" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D327" t="s">
+        <v>59</v>
+      </c>
+      <c r="E327" s="41">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="F327" s="26">
+        <v>-0.32</v>
+      </c>
+      <c r="G327" s="26">
+        <v>-0.4</v>
+      </c>
+      <c r="H327" s="26">
+        <v>2.67</v>
+      </c>
+      <c r="J327" s="42">
+        <v>1.5</v>
+      </c>
+      <c r="K327" s="43"/>
+    </row>
+    <row r="328" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A328" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B328" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D328" t="s">
+        <v>59</v>
+      </c>
+      <c r="E328" s="41"/>
+      <c r="F328" s="26"/>
+      <c r="G328" s="26"/>
+      <c r="H328" s="26"/>
+      <c r="J328" s="42"/>
+      <c r="K328" s="43"/>
+    </row>
+    <row r="329" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A329" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B329" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C329" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D329" t="s">
+        <v>59</v>
+      </c>
+      <c r="E329" s="41"/>
+      <c r="F329" s="26"/>
+      <c r="G329" s="26"/>
+      <c r="H329" s="26"/>
+      <c r="J329" s="42"/>
+      <c r="K329" s="43"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -10087,18 +10585,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10121,26 +10619,26 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E33724C1-1CC7-4A28-8337-87EF28BFF1E6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="446a3eb3-0366-47a1-91c9-13210c495fa9"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="0470bad4-05a1-4571-8de9-6f1a40071b30"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B735B15-AA34-4306-A7C5-CDB69778A145}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E33724C1-1CC7-4A28-8337-87EF28BFF1E6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="0470bad4-05a1-4571-8de9-6f1a40071b30"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="446a3eb3-0366-47a1-91c9-13210c495fa9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>